--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Open Deck BOM</t>
   </si>
@@ -92,10 +92,16 @@
     <t>10kΩ 0805 Resistor</t>
   </si>
   <si>
-    <t>Buy Open Deck &amp; Parts Here:  https://www.tindie.com/products/27756</t>
-  </si>
-  <si>
     <t>M2*6mm Countersunk Screw</t>
+  </si>
+  <si>
+    <t>Non-slip Feet (0.5mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tindie.com/products/27756  </t>
+  </si>
+  <si>
+    <t>Buy Open Deck &amp; Parts Here:</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,8 +503,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -680,12 +689,23 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -701,8 +721,11 @@
     <hyperlink ref="C9" r:id="rId8" display="https://www.tindie.com/products/27756/"/>
     <hyperlink ref="C27" r:id="rId9"/>
     <hyperlink ref="C28" r:id="rId10"/>
+    <hyperlink ref="C29" r:id="rId11"/>
+    <hyperlink ref="A3" r:id="rId12" display="Buy Open Deck &amp; Parts Here"/>
+    <hyperlink ref="B3" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>